--- a/po forecast comparison/B0BF7FT26Z_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0BF7FT26Z_sales_po_comparison.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales vs PO" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Growth" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume Insights" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prediction Info" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,1108 +453,1854 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Order Week</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>44921</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
+        <v>44955</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>44949</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44963</v>
+        <v>44969</v>
       </c>
       <c r="B4" t="n">
         <v>8</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
+        <v>44976</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="n">
         <v>44970</v>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
+        <v>44983</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="n">
         <v>44977</v>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44984</v>
+        <v>44990</v>
       </c>
       <c r="B7" t="n">
         <v>126</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44991</v>
+        <v>44997</v>
       </c>
       <c r="B8" t="n">
         <v>154</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44998</v>
+        <v>45004</v>
       </c>
       <c r="B9" t="n">
         <v>131</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="2" t="n">
+        <v>44998</v>
+      </c>
+      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45005</v>
+        <v>45011</v>
       </c>
       <c r="B10" t="n">
         <v>182</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="2" t="n">
+        <v>45005</v>
+      </c>
+      <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45012</v>
+        <v>45018</v>
       </c>
       <c r="B11" t="n">
         <v>240</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="2" t="n">
+        <v>45012</v>
+      </c>
+      <c r="D11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45019</v>
+        <v>45025</v>
       </c>
       <c r="B12" t="n">
         <v>176</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="2" t="n">
+        <v>45019</v>
+      </c>
+      <c r="D12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45026</v>
+        <v>45032</v>
       </c>
       <c r="B13" t="n">
         <v>116</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="2" t="n">
+        <v>45026</v>
+      </c>
+      <c r="D13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45033</v>
+        <v>45039</v>
       </c>
       <c r="B14" t="n">
         <v>167</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="D14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45040</v>
+        <v>45046</v>
       </c>
       <c r="B15" t="n">
         <v>230</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="D15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45047</v>
+        <v>45053</v>
       </c>
       <c r="B16" t="n">
         <v>250</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="D16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45054</v>
+        <v>45060</v>
       </c>
       <c r="B17" t="n">
         <v>213</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="2" t="n">
+        <v>45054</v>
+      </c>
+      <c r="D17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45061</v>
+        <v>45067</v>
       </c>
       <c r="B18" t="n">
         <v>126</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="2" t="n">
+        <v>45061</v>
+      </c>
+      <c r="D18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45068</v>
+        <v>45074</v>
       </c>
       <c r="B19" t="n">
         <v>66</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="2" t="n">
+        <v>45068</v>
+      </c>
+      <c r="D19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45075</v>
+        <v>45081</v>
       </c>
       <c r="B20" t="n">
         <v>155</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="2" t="n">
+        <v>45075</v>
+      </c>
+      <c r="D20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45082</v>
+        <v>45088</v>
       </c>
       <c r="B21" t="n">
         <v>247</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45089</v>
+        <v>45095</v>
       </c>
       <c r="B22" t="n">
         <v>187</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="2" t="n">
+        <v>45089</v>
+      </c>
+      <c r="D22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45096</v>
+        <v>45102</v>
       </c>
       <c r="B23" t="n">
         <v>163</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="2" t="n">
+        <v>45096</v>
+      </c>
+      <c r="D23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45103</v>
+        <v>45109</v>
       </c>
       <c r="B24" t="n">
         <v>376</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45110</v>
+        <v>45116</v>
       </c>
       <c r="B25" t="n">
         <v>238</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" s="2" t="n">
+        <v>45110</v>
+      </c>
+      <c r="D25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45117</v>
+        <v>45123</v>
       </c>
       <c r="B26" t="n">
         <v>182</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="2" t="n">
+        <v>45117</v>
+      </c>
+      <c r="D26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45124</v>
+        <v>45130</v>
       </c>
       <c r="B27" t="n">
         <v>231</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" s="2" t="n">
+        <v>45124</v>
+      </c>
+      <c r="D27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45131</v>
+        <v>45137</v>
       </c>
       <c r="B28" t="n">
         <v>251</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" s="2" t="n">
+        <v>45131</v>
+      </c>
+      <c r="D28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45138</v>
+        <v>45144</v>
       </c>
       <c r="B29" t="n">
         <v>228</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="D29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45145</v>
+        <v>45151</v>
       </c>
       <c r="B30" t="n">
         <v>195</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30" s="2" t="n">
+        <v>45145</v>
+      </c>
+      <c r="D30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45152</v>
+        <v>45158</v>
       </c>
       <c r="B31" t="n">
         <v>158</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" s="2" t="n">
+        <v>45152</v>
+      </c>
+      <c r="D31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45159</v>
+        <v>45165</v>
       </c>
       <c r="B32" t="n">
         <v>174</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" s="2" t="n">
+        <v>45159</v>
+      </c>
+      <c r="D32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45166</v>
+        <v>45172</v>
       </c>
       <c r="B33" t="n">
         <v>160</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33" s="2" t="n">
+        <v>45166</v>
+      </c>
+      <c r="D33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45173</v>
+        <v>45179</v>
       </c>
       <c r="B34" t="n">
         <v>150</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="D34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45180</v>
+        <v>45186</v>
       </c>
       <c r="B35" t="n">
         <v>150</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="D35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45187</v>
+        <v>45193</v>
       </c>
       <c r="B36" t="n">
         <v>142</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36" s="2" t="n">
+        <v>45187</v>
+      </c>
+      <c r="D36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45194</v>
+        <v>45200</v>
       </c>
       <c r="B37" t="n">
         <v>151</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37" s="2" t="n">
+        <v>45194</v>
+      </c>
+      <c r="D37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45201</v>
+        <v>45207</v>
       </c>
       <c r="B38" t="n">
         <v>147</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38" s="2" t="n">
+        <v>45201</v>
+      </c>
+      <c r="D38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45208</v>
+        <v>45214</v>
       </c>
       <c r="B39" t="n">
         <v>132</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="D39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45215</v>
+        <v>45221</v>
       </c>
       <c r="B40" t="n">
         <v>165</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="D40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45222</v>
+        <v>45228</v>
       </c>
       <c r="B41" t="n">
         <v>123</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="D41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45229</v>
+        <v>45235</v>
       </c>
       <c r="B42" t="n">
         <v>175</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="D42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45236</v>
+        <v>45242</v>
       </c>
       <c r="B43" t="n">
         <v>602</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="D43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45243</v>
+        <v>45249</v>
       </c>
       <c r="B44" t="n">
         <v>873</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="D44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45250</v>
+        <v>45256</v>
       </c>
       <c r="B45" t="n">
         <v>396</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="D45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45257</v>
+        <v>45263</v>
       </c>
       <c r="B46" t="n">
         <v>303</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="D46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45264</v>
+        <v>45270</v>
       </c>
       <c r="B47" t="n">
         <v>335</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="D47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45271</v>
+        <v>45277</v>
       </c>
       <c r="B48" t="n">
         <v>302</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="D48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45285</v>
+        <v>45291</v>
       </c>
       <c r="B49" t="n">
         <v>236</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="D49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45292</v>
+        <v>45298</v>
       </c>
       <c r="B50" t="n">
         <v>189</v>
       </c>
-      <c r="C50" t="n">
-        <v>975</v>
+      <c r="C50" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45299</v>
+        <v>45305</v>
       </c>
       <c r="B51" t="n">
         <v>202</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="D51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45306</v>
+        <v>45312</v>
       </c>
       <c r="B52" t="n">
         <v>187</v>
       </c>
-      <c r="C52" t="n">
-        <v>165</v>
+      <c r="C52" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45313</v>
+        <v>45319</v>
       </c>
       <c r="B53" t="n">
         <v>186</v>
       </c>
-      <c r="C53" t="n">
-        <v>405</v>
+      <c r="C53" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45320</v>
+        <v>45326</v>
       </c>
       <c r="B54" t="n">
         <v>186</v>
       </c>
-      <c r="C54" t="n">
-        <v>375</v>
+      <c r="C54" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45327</v>
+        <v>45333</v>
       </c>
       <c r="B55" t="n">
         <v>188</v>
       </c>
-      <c r="C55" t="n">
-        <v>585</v>
+      <c r="C55" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45334</v>
+        <v>45340</v>
       </c>
       <c r="B56" t="n">
         <v>171</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="D56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45341</v>
+        <v>45347</v>
       </c>
       <c r="B57" t="n">
         <v>191</v>
       </c>
-      <c r="C57" t="n">
-        <v>270</v>
+      <c r="C57" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45348</v>
+        <v>45354</v>
       </c>
       <c r="B58" t="n">
         <v>250</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="D58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45355</v>
+        <v>45361</v>
       </c>
       <c r="B59" t="n">
         <v>190</v>
       </c>
-      <c r="C59" t="n">
-        <v>880</v>
+      <c r="C59" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45362</v>
+        <v>45368</v>
       </c>
       <c r="B60" t="n">
         <v>184</v>
       </c>
-      <c r="C60" t="n">
-        <v>200</v>
+      <c r="C60" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45369</v>
+        <v>45375</v>
       </c>
       <c r="B61" t="n">
         <v>167</v>
       </c>
-      <c r="C61" t="n">
-        <v>250</v>
+      <c r="C61" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45376</v>
+        <v>45382</v>
       </c>
       <c r="B62" t="n">
         <v>167</v>
       </c>
-      <c r="C62" t="n">
-        <v>75</v>
+      <c r="C62" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45383</v>
+        <v>45389</v>
       </c>
       <c r="B63" t="n">
         <v>131</v>
       </c>
-      <c r="C63" t="n">
-        <v>740</v>
+      <c r="C63" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45390</v>
+        <v>45396</v>
       </c>
       <c r="B64" t="n">
         <v>122</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="D64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45397</v>
+        <v>45403</v>
       </c>
       <c r="B65" t="n">
         <v>105</v>
       </c>
-      <c r="C65" t="n">
-        <v>180</v>
+      <c r="C65" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45404</v>
+        <v>45410</v>
       </c>
       <c r="B66" t="n">
         <v>110</v>
       </c>
-      <c r="C66" t="n">
-        <v>60</v>
+      <c r="C66" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45411</v>
+        <v>45417</v>
       </c>
       <c r="B67" t="n">
         <v>128</v>
       </c>
-      <c r="C67" t="n">
-        <v>20</v>
+      <c r="C67" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45418</v>
+        <v>45424</v>
       </c>
       <c r="B68" t="n">
         <v>113</v>
       </c>
-      <c r="C68" t="n">
-        <v>390</v>
+      <c r="C68" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45425</v>
+        <v>45431</v>
       </c>
       <c r="B69" t="n">
         <v>99</v>
       </c>
-      <c r="C69" t="n">
-        <v>320</v>
+      <c r="C69" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45432</v>
+        <v>45438</v>
       </c>
       <c r="B70" t="n">
         <v>86</v>
       </c>
-      <c r="C70" t="n">
-        <v>160</v>
+      <c r="C70" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45439</v>
+        <v>45445</v>
       </c>
       <c r="B71" t="n">
         <v>100</v>
       </c>
-      <c r="C71" t="n">
-        <v>260</v>
+      <c r="C71" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45446</v>
+        <v>45452</v>
       </c>
       <c r="B72" t="n">
         <v>37</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="D72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45453</v>
+        <v>45459</v>
       </c>
       <c r="B73" t="n">
         <v>63</v>
       </c>
-      <c r="C73" t="n">
-        <v>2590</v>
+      <c r="C73" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45460</v>
+        <v>45466</v>
       </c>
       <c r="B74" t="n">
         <v>73</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="D74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45467</v>
+        <v>45473</v>
       </c>
       <c r="B75" t="n">
         <v>73</v>
       </c>
-      <c r="C75" t="n">
-        <v>430</v>
+      <c r="C75" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45474</v>
+        <v>45480</v>
       </c>
       <c r="B76" t="n">
         <v>74</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="D76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45481</v>
+        <v>45487</v>
       </c>
       <c r="B77" t="n">
         <v>181</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="D77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45488</v>
+        <v>45494</v>
       </c>
       <c r="B78" t="n">
         <v>131</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="D78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45495</v>
+        <v>45501</v>
       </c>
       <c r="B79" t="n">
         <v>129</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="D79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45502</v>
+        <v>45508</v>
       </c>
       <c r="B80" t="n">
         <v>144</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="D80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B81" t="n">
         <v>183</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="D81" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45516</v>
+        <v>45522</v>
       </c>
       <c r="B82" t="n">
         <v>171</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="D82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45523</v>
+        <v>45529</v>
       </c>
       <c r="B83" t="n">
         <v>740</v>
       </c>
-      <c r="C83" t="n">
-        <v>260</v>
+      <c r="C83" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45530</v>
+        <v>45536</v>
       </c>
       <c r="B84" t="n">
         <v>148</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="D84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45537</v>
+        <v>45543</v>
       </c>
       <c r="B85" t="n">
         <v>151</v>
       </c>
-      <c r="C85" t="n">
-        <v>260</v>
+      <c r="C85" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45544</v>
+        <v>45550</v>
       </c>
       <c r="B86" t="n">
         <v>163</v>
       </c>
-      <c r="C86" t="n">
-        <v>430</v>
+      <c r="C86" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45551</v>
+        <v>45557</v>
       </c>
       <c r="B87" t="n">
         <v>138</v>
       </c>
-      <c r="C87" t="n">
-        <v>550</v>
+      <c r="C87" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45558</v>
+        <v>45564</v>
       </c>
       <c r="B88" t="n">
         <v>108</v>
       </c>
-      <c r="C88" t="n">
-        <v>1020</v>
+      <c r="C88" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45565</v>
+        <v>45571</v>
       </c>
       <c r="B89" t="n">
         <v>135</v>
       </c>
-      <c r="C89" t="n">
-        <v>560</v>
+      <c r="C89" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45572</v>
+        <v>45578</v>
       </c>
       <c r="B90" t="n">
         <v>114</v>
       </c>
-      <c r="C90" t="n">
-        <v>670</v>
+      <c r="C90" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45579</v>
+        <v>45585</v>
       </c>
       <c r="B91" t="n">
         <v>75</v>
       </c>
-      <c r="C91" t="n">
-        <v>2180</v>
+      <c r="C91" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="B92" t="n">
         <v>58</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="D92" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45593</v>
+        <v>45599</v>
       </c>
       <c r="B93" t="n">
         <v>74</v>
       </c>
-      <c r="C93" t="n">
-        <v>890</v>
+      <c r="C93" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="B94" t="n">
         <v>66</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="D94" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45607</v>
+        <v>45613</v>
       </c>
       <c r="B95" t="n">
         <v>203</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="D95" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45614</v>
+        <v>45620</v>
       </c>
       <c r="B96" t="n">
         <v>402</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="D96" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="B97" t="n">
         <v>434</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="D97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45628</v>
+        <v>45634</v>
       </c>
       <c r="B98" t="n">
         <v>186</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="D98" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45635</v>
+        <v>45641</v>
       </c>
       <c r="B99" t="n">
         <v>173</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="D99" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45642</v>
+        <v>45648</v>
       </c>
       <c r="B100" t="n">
         <v>179</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="D100" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45649</v>
+        <v>45655</v>
       </c>
       <c r="B101" t="n">
         <v>189</v>
       </c>
-      <c r="C101" t="n">
-        <v>0</v>
+      <c r="C101" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Requested_Qty</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Growth%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B2" t="n">
+        <v>975</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="B3" t="n">
+        <v>165</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-83.07692307692307</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="B4" t="n">
+        <v>405</v>
+      </c>
+      <c r="C4" t="n">
+        <v>145.4545454545455</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="B5" t="n">
+        <v>375</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-7.407407407407407</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="B6" t="n">
+        <v>585</v>
+      </c>
+      <c r="C6" t="n">
+        <v>56.00000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="B7" t="n">
+        <v>270</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-53.84615384615385</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="B8" t="n">
+        <v>880</v>
+      </c>
+      <c r="C8" t="n">
+        <v>225.9259259259259</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="B9" t="n">
+        <v>200</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-77.27272727272727</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B10" t="n">
+        <v>250</v>
+      </c>
+      <c r="C10" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="B11" t="n">
+        <v>75</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B12" t="n">
+        <v>740</v>
+      </c>
+      <c r="C12" t="n">
+        <v>886.6666666666667</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B13" t="n">
+        <v>180</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-75.67567567567568</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B14" t="n">
+        <v>60</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-66.66666666666667</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B15" t="n">
+        <v>20</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-66.66666666666667</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="B16" t="n">
+        <v>390</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B17" t="n">
+        <v>320</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-17.94871794871795</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B18" t="n">
+        <v>160</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="B19" t="n">
+        <v>260</v>
+      </c>
+      <c r="C19" t="n">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2590</v>
+      </c>
+      <c r="C20" t="n">
+        <v>896.1538461538462</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B21" t="n">
+        <v>430</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-83.39768339768339</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B22" t="n">
+        <v>260</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-39.53488372093024</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B23" t="n">
+        <v>260</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B24" t="n">
+        <v>430</v>
+      </c>
+      <c r="C24" t="n">
+        <v>65.38461538461537</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B25" t="n">
+        <v>550</v>
+      </c>
+      <c r="C25" t="n">
+        <v>27.90697674418605</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C26" t="n">
+        <v>85.45454545454545</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B27" t="n">
+        <v>560</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-45.09803921568627</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B28" t="n">
+        <v>670</v>
+      </c>
+      <c r="C28" t="n">
+        <v>19.64285714285714</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2180</v>
+      </c>
+      <c r="C29" t="n">
+        <v>225.3731343283582</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B30" t="n">
+        <v>890</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-59.1743119266055</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Total_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Average_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Max_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Min_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>16150</v>
+      </c>
+      <c r="B2" t="n">
+        <v>556.8965517241379</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2590</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Predicted_Next_Week_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>881.1699507389162</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B0BF7FT26Z_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0BF7FT26Z_sales_po_comparison.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,1412 +453,1107 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Order Week</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44927</v>
+        <v>44927.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>44921</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44955</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>44949</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+      <c r="C3" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44969</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>44963</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+      <c r="C4" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44976</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>44970</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+      <c r="C5" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44983</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>44977</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
+      <c r="C6" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44990</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>126</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>44984</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+      <c r="C7" t="n">
+        <v>265</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44997</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>154</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>44991</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+      <c r="C8" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45004</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>131</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>44998</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
+      <c r="C9" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45011</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>182</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>45005</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
+      <c r="C10" t="n">
+        <v>480</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45018</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>240</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>45012</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45025</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>176</v>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>45019</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
+      <c r="C12" t="n">
+        <v>480</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45032</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>116</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>45026</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
+      <c r="C13" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45039</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>167</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>45033</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
+      <c r="C14" t="n">
+        <v>930</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45046</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>230</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>45040</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45053</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>250</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>45047</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45060</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>213</v>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>45054</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="C17" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45067</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>126</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>45061</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
+      <c r="C18" t="n">
+        <v>455</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45074</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>66</v>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>45068</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
+      <c r="C19" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45081</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>155</v>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>45075</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
+      <c r="C20" t="n">
+        <v>650</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45088</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>247</v>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>45082</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
+      <c r="C21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45095</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>187</v>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>45089</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="C22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45102</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>163</v>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>45096</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
+      <c r="C23" t="n">
+        <v>390</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45109</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>376</v>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>45103</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
+      <c r="C24" t="n">
+        <v>540</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45116</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B25" t="n">
         <v>238</v>
       </c>
-      <c r="C25" s="2" t="n">
-        <v>45110</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
+      <c r="C25" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45123</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>182</v>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>45117</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
+      <c r="C26" t="n">
+        <v>360</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45130</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B27" t="n">
         <v>231</v>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>45124</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
+      <c r="C27" t="n">
+        <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45137</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B28" t="n">
         <v>251</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>45131</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
+      <c r="C28" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45144</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B29" t="n">
         <v>228</v>
       </c>
-      <c r="C29" s="2" t="n">
-        <v>45138</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
+      <c r="C29" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45151</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B30" t="n">
         <v>195</v>
       </c>
-      <c r="C30" s="2" t="n">
-        <v>45145</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
+      <c r="C30" t="n">
+        <v>355</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45158</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B31" t="n">
         <v>158</v>
       </c>
-      <c r="C31" s="2" t="n">
-        <v>45152</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
+      <c r="C31" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45165</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B32" t="n">
         <v>174</v>
       </c>
-      <c r="C32" s="2" t="n">
-        <v>45159</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
+      <c r="C32" t="n">
+        <v>435</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45172</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B33" t="n">
         <v>160</v>
       </c>
-      <c r="C33" s="2" t="n">
-        <v>45166</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
+      <c r="C33" t="n">
+        <v>190</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45179</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B34" t="n">
         <v>150</v>
       </c>
-      <c r="C34" s="2" t="n">
-        <v>45173</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
+      <c r="C34" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45186</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B35" t="n">
         <v>150</v>
       </c>
-      <c r="C35" s="2" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
+      <c r="C35" t="n">
+        <v>185</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45193</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B36" t="n">
         <v>142</v>
       </c>
-      <c r="C36" s="2" t="n">
-        <v>45187</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
+      <c r="C36" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45200</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B37" t="n">
         <v>151</v>
       </c>
-      <c r="C37" s="2" t="n">
-        <v>45194</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
+      <c r="C37" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45207</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B38" t="n">
         <v>147</v>
       </c>
-      <c r="C38" s="2" t="n">
-        <v>45201</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
+      <c r="C38" t="n">
+        <v>1275</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45214</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B39" t="n">
         <v>132</v>
       </c>
-      <c r="C39" s="2" t="n">
-        <v>45208</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
+      <c r="C39" t="n">
+        <v>430</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45221</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B40" t="n">
         <v>165</v>
       </c>
-      <c r="C40" s="2" t="n">
-        <v>45215</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
+      <c r="C40" t="n">
+        <v>770</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45228</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B41" t="n">
         <v>123</v>
       </c>
-      <c r="C41" s="2" t="n">
-        <v>45222</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
+      <c r="C41" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45235</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B42" t="n">
         <v>175</v>
       </c>
-      <c r="C42" s="2" t="n">
-        <v>45229</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
+      <c r="C42" t="n">
+        <v>405</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45242</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B43" t="n">
         <v>602</v>
       </c>
-      <c r="C43" s="2" t="n">
-        <v>45236</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
+      <c r="C43" t="n">
+        <v>425</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45249</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B44" t="n">
         <v>873</v>
       </c>
-      <c r="C44" s="2" t="n">
-        <v>45243</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
+      <c r="C44" t="n">
+        <v>305</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45256</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B45" t="n">
         <v>396</v>
       </c>
-      <c r="C45" s="2" t="n">
-        <v>45250</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
+      <c r="C45" t="n">
+        <v>260</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45263</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B46" t="n">
         <v>303</v>
       </c>
-      <c r="C46" s="2" t="n">
-        <v>45257</v>
-      </c>
-      <c r="D46" t="n">
+      <c r="C46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45270</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B47" t="n">
         <v>335</v>
       </c>
-      <c r="C47" s="2" t="n">
-        <v>45264</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
+      <c r="C47" t="n">
+        <v>950</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45277</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B48" t="n">
         <v>302</v>
       </c>
-      <c r="C48" s="2" t="n">
-        <v>45271</v>
-      </c>
-      <c r="D48" t="n">
+      <c r="C48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45291</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B49" t="n">
         <v>236</v>
       </c>
-      <c r="C49" s="2" t="n">
-        <v>45285</v>
-      </c>
-      <c r="D49" t="n">
+      <c r="C49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45298</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B50" t="n">
         <v>189</v>
       </c>
-      <c r="C50" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
+      <c r="C50" t="n">
+        <v>975</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45305</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B51" t="n">
         <v>202</v>
       </c>
-      <c r="C51" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="D51" t="n">
+      <c r="C51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45312</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B52" t="n">
         <v>187</v>
       </c>
-      <c r="C52" s="2" t="n">
-        <v>45306</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
+      <c r="C52" t="n">
+        <v>165</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45319</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B53" t="n">
         <v>186</v>
       </c>
-      <c r="C53" s="2" t="n">
-        <v>45313</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
+      <c r="C53" t="n">
+        <v>405</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45326</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B54" t="n">
         <v>186</v>
       </c>
-      <c r="C54" s="2" t="n">
-        <v>45320</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
+      <c r="C54" t="n">
+        <v>375</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45333</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B55" t="n">
         <v>188</v>
       </c>
-      <c r="C55" s="2" t="n">
-        <v>45327</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
+      <c r="C55" t="n">
+        <v>585</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45340</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B56" t="n">
         <v>171</v>
       </c>
-      <c r="C56" s="2" t="n">
-        <v>45334</v>
-      </c>
-      <c r="D56" t="n">
+      <c r="C56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45347</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B57" t="n">
         <v>191</v>
       </c>
-      <c r="C57" s="2" t="n">
-        <v>45341</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
+      <c r="C57" t="n">
+        <v>270</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45354</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B58" t="n">
         <v>250</v>
       </c>
-      <c r="C58" s="2" t="n">
-        <v>45348</v>
-      </c>
-      <c r="D58" t="n">
+      <c r="C58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45361</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B59" t="n">
         <v>190</v>
       </c>
-      <c r="C59" s="2" t="n">
-        <v>45355</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
+      <c r="C59" t="n">
+        <v>880</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45368</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B60" t="n">
         <v>184</v>
       </c>
-      <c r="C60" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
+      <c r="C60" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45375</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B61" t="n">
         <v>167</v>
       </c>
-      <c r="C61" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
+      <c r="C61" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45382</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B62" t="n">
         <v>167</v>
       </c>
-      <c r="C62" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
+      <c r="C62" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45389</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B63" t="n">
         <v>131</v>
       </c>
-      <c r="C63" s="2" t="n">
-        <v>45383</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
+      <c r="C63" t="n">
+        <v>740</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45396</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B64" t="n">
         <v>122</v>
       </c>
-      <c r="C64" s="2" t="n">
-        <v>45390</v>
-      </c>
-      <c r="D64" t="n">
+      <c r="C64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45403</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B65" t="n">
         <v>105</v>
       </c>
-      <c r="C65" s="2" t="n">
-        <v>45397</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
+      <c r="C65" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45410</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B66" t="n">
         <v>110</v>
       </c>
-      <c r="C66" s="2" t="n">
-        <v>45404</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
+      <c r="C66" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45417</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B67" t="n">
         <v>128</v>
       </c>
-      <c r="C67" s="2" t="n">
-        <v>45411</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
+      <c r="C67" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45424</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B68" t="n">
         <v>113</v>
       </c>
-      <c r="C68" s="2" t="n">
-        <v>45418</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
+      <c r="C68" t="n">
+        <v>390</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45431</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B69" t="n">
         <v>99</v>
       </c>
-      <c r="C69" s="2" t="n">
-        <v>45425</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
+      <c r="C69" t="n">
+        <v>320</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45438</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B70" t="n">
         <v>86</v>
       </c>
-      <c r="C70" s="2" t="n">
-        <v>45432</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
+      <c r="C70" t="n">
+        <v>160</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45445</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B71" t="n">
         <v>100</v>
       </c>
-      <c r="C71" s="2" t="n">
-        <v>45439</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
+      <c r="C71" t="n">
+        <v>260</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45452</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B72" t="n">
         <v>37</v>
       </c>
-      <c r="C72" s="2" t="n">
-        <v>45446</v>
-      </c>
-      <c r="D72" t="n">
+      <c r="C72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45459</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B73" t="n">
         <v>63</v>
       </c>
-      <c r="C73" s="2" t="n">
-        <v>45453</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
+      <c r="C73" t="n">
+        <v>2590</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45466</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B74" t="n">
         <v>73</v>
       </c>
-      <c r="C74" s="2" t="n">
-        <v>45460</v>
-      </c>
-      <c r="D74" t="n">
+      <c r="C74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45473</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B75" t="n">
         <v>73</v>
       </c>
-      <c r="C75" s="2" t="n">
-        <v>45467</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0</v>
+      <c r="C75" t="n">
+        <v>430</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45480</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B76" t="n">
         <v>74</v>
       </c>
-      <c r="C76" s="2" t="n">
-        <v>45474</v>
-      </c>
-      <c r="D76" t="n">
+      <c r="C76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45487</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B77" t="n">
         <v>181</v>
       </c>
-      <c r="C77" s="2" t="n">
-        <v>45481</v>
-      </c>
-      <c r="D77" t="n">
+      <c r="C77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45494</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B78" t="n">
         <v>131</v>
       </c>
-      <c r="C78" s="2" t="n">
-        <v>45488</v>
-      </c>
-      <c r="D78" t="n">
+      <c r="C78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45501</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B79" t="n">
         <v>129</v>
       </c>
-      <c r="C79" s="2" t="n">
-        <v>45495</v>
-      </c>
-      <c r="D79" t="n">
+      <c r="C79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45508</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B80" t="n">
         <v>144</v>
       </c>
-      <c r="C80" s="2" t="n">
-        <v>45502</v>
-      </c>
-      <c r="D80" t="n">
+      <c r="C80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45515</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B81" t="n">
         <v>183</v>
       </c>
-      <c r="C81" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="D81" t="n">
+      <c r="C81" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45522</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B82" t="n">
         <v>171</v>
       </c>
-      <c r="C82" s="2" t="n">
-        <v>45516</v>
-      </c>
-      <c r="D82" t="n">
+      <c r="C82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45529</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B83" t="n">
         <v>740</v>
       </c>
-      <c r="C83" s="2" t="n">
-        <v>45523</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0</v>
+      <c r="C83" t="n">
+        <v>260</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45536</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B84" t="n">
         <v>148</v>
       </c>
-      <c r="C84" s="2" t="n">
-        <v>45530</v>
-      </c>
-      <c r="D84" t="n">
+      <c r="C84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45543</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B85" t="n">
         <v>151</v>
       </c>
-      <c r="C85" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0</v>
+      <c r="C85" t="n">
+        <v>260</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45550</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B86" t="n">
         <v>163</v>
       </c>
-      <c r="C86" s="2" t="n">
-        <v>45544</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0</v>
+      <c r="C86" t="n">
+        <v>430</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45557</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B87" t="n">
         <v>138</v>
       </c>
-      <c r="C87" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0</v>
+      <c r="C87" t="n">
+        <v>550</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45564</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B88" t="n">
         <v>108</v>
       </c>
-      <c r="C88" s="2" t="n">
-        <v>45558</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0</v>
+      <c r="C88" t="n">
+        <v>1020</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45571</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B89" t="n">
         <v>135</v>
       </c>
-      <c r="C89" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0</v>
+      <c r="C89" t="n">
+        <v>560</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45578</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B90" t="n">
         <v>114</v>
       </c>
-      <c r="C90" s="2" t="n">
-        <v>45572</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0</v>
+      <c r="C90" t="n">
+        <v>670</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45585</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B91" t="n">
         <v>75</v>
       </c>
-      <c r="C91" s="2" t="n">
-        <v>45579</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0</v>
+      <c r="C91" t="n">
+        <v>2180</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45592</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B92" t="n">
         <v>58</v>
       </c>
-      <c r="C92" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="D92" t="n">
+      <c r="C92" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45599</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B93" t="n">
         <v>74</v>
       </c>
-      <c r="C93" s="2" t="n">
-        <v>45593</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0</v>
+      <c r="C93" t="n">
+        <v>890</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45606</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B94" t="n">
         <v>66</v>
       </c>
-      <c r="C94" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="D94" t="n">
+      <c r="C94" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45613</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B95" t="n">
         <v>203</v>
       </c>
-      <c r="C95" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="D95" t="n">
+      <c r="C95" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45620</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B96" t="n">
         <v>402</v>
       </c>
-      <c r="C96" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="D96" t="n">
+      <c r="C96" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45627</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B97" t="n">
         <v>434</v>
       </c>
-      <c r="C97" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="D97" t="n">
+      <c r="C97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45634</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B98" t="n">
         <v>186</v>
       </c>
-      <c r="C98" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="D98" t="n">
+      <c r="C98" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45641</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B99" t="n">
         <v>173</v>
       </c>
-      <c r="C99" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="D99" t="n">
+      <c r="C99" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45648</v>
+        <v>45648.99999999999</v>
       </c>
       <c r="B100" t="n">
         <v>179</v>
       </c>
-      <c r="C100" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="D100" t="n">
+      <c r="C100" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45655</v>
+        <v>45655.99999999999</v>
       </c>
       <c r="B101" t="n">
         <v>189</v>
       </c>
-      <c r="C101" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="D101" t="n">
+      <c r="C101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1873,7 +1568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1900,10 +1595,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>975</v>
+        <v>110</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1911,309 +1606,782 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="C3" t="n">
-        <v>-83.07692307692307</v>
+        <v>-59.09090909090908</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45313</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>405</v>
+        <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>145.4545454545455</v>
+        <v>-55.55555555555556</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>375</v>
+        <v>145</v>
       </c>
       <c r="C5" t="n">
-        <v>-7.407407407407407</v>
+        <v>625</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45327</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>585</v>
+        <v>120</v>
       </c>
       <c r="C6" t="n">
-        <v>56.00000000000001</v>
+        <v>-17.24137931034483</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45341</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>270</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>-53.84615384615385</v>
+        <v>-87.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45355</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>880</v>
+        <v>125</v>
       </c>
       <c r="C8" t="n">
-        <v>225.9259259259259</v>
+        <v>733.3333333333334</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45362</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="C9" t="n">
-        <v>-77.27272727272727</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45369</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>-77.35849056603774</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45376</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="C11" t="n">
-        <v>-70</v>
+        <v>158.3333333333333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45383</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>740</v>
+        <v>480</v>
       </c>
       <c r="C12" t="n">
-        <v>886.6666666666667</v>
+        <v>209.6774193548387</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45397</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="C13" t="n">
-        <v>-75.67567567567568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45404</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C14" t="n">
-        <v>-66.66666666666667</v>
+        <v>-84.375</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45411</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>20</v>
+        <v>930</v>
       </c>
       <c r="C15" t="n">
-        <v>-66.66666666666667</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45418</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>390</v>
+        <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1850</v>
+        <v>-89.24731182795699</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45425</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>320</v>
+        <v>455</v>
       </c>
       <c r="C17" t="n">
-        <v>-17.94871794871795</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45432</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="C18" t="n">
-        <v>-50</v>
+        <v>-75.82417582417582</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45439</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>260</v>
+        <v>650</v>
       </c>
       <c r="C19" t="n">
-        <v>62.5</v>
+        <v>490.9090909090909</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45453</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>2590</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>896.1538461538462</v>
+        <v>-99.23076923076923</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45467</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="C21" t="n">
-        <v>-83.39768339768339</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45523</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>260</v>
+        <v>540</v>
       </c>
       <c r="C22" t="n">
-        <v>-39.53488372093024</v>
+        <v>38.46153846153846</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45537</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>-72.22222222222221</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45544</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>430</v>
+        <v>360</v>
       </c>
       <c r="C24" t="n">
-        <v>65.38461538461537</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45551</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>550</v>
+        <v>235</v>
       </c>
       <c r="C25" t="n">
-        <v>27.90697674418605</v>
+        <v>-34.72222222222222</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45558</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>1020</v>
+        <v>130</v>
       </c>
       <c r="C26" t="n">
-        <v>85.45454545454545</v>
+        <v>-44.68085106382978</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45565</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>560</v>
+        <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>-45.09803921568627</v>
+        <v>-96.15384615384616</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45572</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>670</v>
+        <v>355</v>
       </c>
       <c r="C28" t="n">
-        <v>19.64285714285714</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45579</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>2180</v>
+        <v>230</v>
       </c>
       <c r="C29" t="n">
-        <v>225.3731343283582</v>
+        <v>-35.2112676056338</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45593</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B30" t="n">
+        <v>435</v>
+      </c>
+      <c r="C30" t="n">
+        <v>89.13043478260869</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>190</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-56.32183908045977</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>50</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-73.68421052631579</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>185</v>
+      </c>
+      <c r="C33" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>100</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-45.94594594594594</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>125</v>
+      </c>
+      <c r="C35" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1275</v>
+      </c>
+      <c r="C36" t="n">
+        <v>919.9999999999999</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>430</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-66.27450980392156</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>770</v>
+      </c>
+      <c r="C38" t="n">
+        <v>79.06976744186048</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>85</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-88.96103896103897</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>405</v>
+      </c>
+      <c r="C40" t="n">
+        <v>376.4705882352941</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>425</v>
+      </c>
+      <c r="C41" t="n">
+        <v>4.938271604938271</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>305</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-28.23529411764706</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>260</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-14.75409836065574</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>950</v>
+      </c>
+      <c r="C44" t="n">
+        <v>265.3846153846154</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>975</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2.631578947368429</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>165</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-83.07692307692307</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>405</v>
+      </c>
+      <c r="C47" t="n">
+        <v>145.4545454545455</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>375</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-7.407407407407407</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>585</v>
+      </c>
+      <c r="C49" t="n">
+        <v>56.00000000000001</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>270</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-53.84615384615385</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>880</v>
+      </c>
+      <c r="C51" t="n">
+        <v>225.9259259259259</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>200</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-77.27272727272727</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>250</v>
+      </c>
+      <c r="C53" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>75</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>740</v>
+      </c>
+      <c r="C55" t="n">
+        <v>886.6666666666667</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>180</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-75.67567567567568</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>60</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-66.66666666666667</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>20</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-66.66666666666667</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>390</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>320</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-17.94871794871795</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>160</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>260</v>
+      </c>
+      <c r="C62" t="n">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>2590</v>
+      </c>
+      <c r="C63" t="n">
+        <v>896.1538461538462</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>430</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-83.39768339768339</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>260</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-39.53488372093024</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>260</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>430</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65.38461538461537</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>550</v>
+      </c>
+      <c r="C68" t="n">
+        <v>27.90697674418605</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C69" t="n">
+        <v>85.45454545454545</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>560</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-45.09803921568627</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B71" t="n">
+        <v>670</v>
+      </c>
+      <c r="C71" t="n">
+        <v>19.64285714285714</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B72" t="n">
+        <v>2180</v>
+      </c>
+      <c r="C72" t="n">
+        <v>225.3731343283582</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B73" t="n">
         <v>890</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C73" t="n">
         <v>-59.1743119266055</v>
       </c>
     </row>
@@ -2260,16 +2428,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16150</v>
+        <v>28880</v>
       </c>
       <c r="B2" t="n">
-        <v>556.8965517241379</v>
+        <v>401.1111111111111</v>
       </c>
       <c r="C2" t="n">
         <v>2590</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2300,7 +2468,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>881.1699507389162</v>
+        <v>704.579420970266</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B0BF7FT26Z_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0BF7FT26Z_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1251,6 +1251,14 @@
       </c>
       <c r="B101" t="n">
         <v>189</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B102" t="n">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -44161,7 +44169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C464"/>
+  <dimension ref="A1:C465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47989,7 +47997,7 @@
         <v>0</v>
       </c>
       <c r="C347" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="348">
@@ -48000,7 +48008,7 @@
         <v>0</v>
       </c>
       <c r="C348" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="349">
@@ -48022,7 +48030,7 @@
         <v>0</v>
       </c>
       <c r="C350" t="n">
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="351">
@@ -48044,7 +48052,7 @@
         <v>0</v>
       </c>
       <c r="C352" t="n">
-        <v>20</v>
+        <v>85</v>
       </c>
     </row>
     <row r="353">
@@ -48264,7 +48272,7 @@
         <v>0</v>
       </c>
       <c r="C372" t="n">
-        <v>390</v>
+        <v>45</v>
       </c>
     </row>
     <row r="373">
@@ -48275,7 +48283,7 @@
         <v>0</v>
       </c>
       <c r="C373" t="n">
-        <v>410</v>
+        <v>390</v>
       </c>
     </row>
     <row r="374">
@@ -48297,7 +48305,7 @@
         <v>0</v>
       </c>
       <c r="C375" t="n">
-        <v>45</v>
+        <v>410</v>
       </c>
     </row>
     <row r="376">
@@ -48330,7 +48338,7 @@
         <v>0</v>
       </c>
       <c r="C378" t="n">
-        <v>450</v>
+        <v>410</v>
       </c>
     </row>
     <row r="379">
@@ -48341,7 +48349,7 @@
         <v>0</v>
       </c>
       <c r="C379" t="n">
-        <v>410</v>
+        <v>450</v>
       </c>
     </row>
     <row r="380">
@@ -48748,7 +48756,7 @@
         <v>0</v>
       </c>
       <c r="C416" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="417">
@@ -48759,7 +48767,7 @@
         <v>0</v>
       </c>
       <c r="C417" t="n">
-        <v>10</v>
+        <v>220</v>
       </c>
     </row>
     <row r="418">
@@ -48770,7 +48778,7 @@
         <v>0</v>
       </c>
       <c r="C418" t="n">
-        <v>220</v>
+        <v>10</v>
       </c>
     </row>
     <row r="419">
@@ -48781,7 +48789,7 @@
         <v>0</v>
       </c>
       <c r="C419" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="420">
@@ -48792,7 +48800,7 @@
         <v>0</v>
       </c>
       <c r="C420" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="421">
@@ -48803,7 +48811,7 @@
         <v>0</v>
       </c>
       <c r="C421" t="n">
-        <v>10</v>
+        <v>220</v>
       </c>
     </row>
     <row r="422">
@@ -48814,7 +48822,7 @@
         <v>0</v>
       </c>
       <c r="C422" t="n">
-        <v>220</v>
+        <v>10</v>
       </c>
     </row>
     <row r="423">
@@ -48825,7 +48833,7 @@
         <v>0</v>
       </c>
       <c r="C423" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="424">
@@ -49056,7 +49064,7 @@
         <v>0</v>
       </c>
       <c r="C444" t="n">
-        <v>5</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="445">
@@ -49089,7 +49097,7 @@
         <v>0</v>
       </c>
       <c r="C447" t="n">
-        <v>5</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="448">
@@ -49100,7 +49108,7 @@
         <v>0</v>
       </c>
       <c r="C448" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="449">
@@ -49122,7 +49130,7 @@
         <v>0</v>
       </c>
       <c r="C450" t="n">
-        <v>1050</v>
+        <v>30</v>
       </c>
     </row>
     <row r="451">
@@ -49133,7 +49141,7 @@
         <v>0</v>
       </c>
       <c r="C451" t="n">
-        <v>1050</v>
+        <v>5</v>
       </c>
     </row>
     <row r="452">
@@ -49276,6 +49284,17 @@
         <v>189</v>
       </c>
       <c r="C464" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B465" t="n">
+        <v>107</v>
+      </c>
+      <c r="C465" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0BF7FT26Z_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0BF7FT26Z_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,6 +1259,14 @@
       </c>
       <c r="B102" t="n">
         <v>107</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B103" t="n">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -44169,7 +44177,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C465"/>
+  <dimension ref="A1:C466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46743,7 +46751,7 @@
         <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>10</v>
+        <v>65</v>
       </c>
     </row>
     <row r="234">
@@ -46754,7 +46762,7 @@
         <v>0</v>
       </c>
       <c r="C234" t="n">
-        <v>65</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235">
@@ -49295,6 +49303,17 @@
         <v>107</v>
       </c>
       <c r="C465" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B466" t="n">
+        <v>99</v>
+      </c>
+      <c r="C466" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0BF7FT26Z_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0BF7FT26Z_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1267,6 +1267,14 @@
       </c>
       <c r="B103" t="n">
         <v>99</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -44177,7 +44185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C466"/>
+  <dimension ref="A1:C467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47994,7 +48002,7 @@
         <v>0</v>
       </c>
       <c r="C346" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="347">
@@ -48016,7 +48024,7 @@
         <v>0</v>
       </c>
       <c r="C348" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="349">
@@ -48038,7 +48046,7 @@
         <v>0</v>
       </c>
       <c r="C350" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="351">
@@ -48049,7 +48057,7 @@
         <v>0</v>
       </c>
       <c r="C351" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="352">
@@ -48214,7 +48222,7 @@
         <v>0</v>
       </c>
       <c r="C366" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="367">
@@ -48247,7 +48255,7 @@
         <v>0</v>
       </c>
       <c r="C369" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="370">
@@ -48280,7 +48288,7 @@
         <v>0</v>
       </c>
       <c r="C372" t="n">
-        <v>45</v>
+        <v>410</v>
       </c>
     </row>
     <row r="373">
@@ -48291,7 +48299,7 @@
         <v>0</v>
       </c>
       <c r="C373" t="n">
-        <v>390</v>
+        <v>450</v>
       </c>
     </row>
     <row r="374">
@@ -48302,7 +48310,7 @@
         <v>0</v>
       </c>
       <c r="C374" t="n">
-        <v>45</v>
+        <v>390</v>
       </c>
     </row>
     <row r="375">
@@ -48313,7 +48321,7 @@
         <v>0</v>
       </c>
       <c r="C375" t="n">
-        <v>410</v>
+        <v>450</v>
       </c>
     </row>
     <row r="376">
@@ -48324,7 +48332,7 @@
         <v>0</v>
       </c>
       <c r="C376" t="n">
-        <v>390</v>
+        <v>45</v>
       </c>
     </row>
     <row r="377">
@@ -48335,7 +48343,7 @@
         <v>0</v>
       </c>
       <c r="C377" t="n">
-        <v>450</v>
+        <v>45</v>
       </c>
     </row>
     <row r="378">
@@ -48346,7 +48354,7 @@
         <v>0</v>
       </c>
       <c r="C378" t="n">
-        <v>410</v>
+        <v>390</v>
       </c>
     </row>
     <row r="379">
@@ -48357,7 +48365,7 @@
         <v>0</v>
       </c>
       <c r="C379" t="n">
-        <v>450</v>
+        <v>410</v>
       </c>
     </row>
     <row r="380">
@@ -48687,7 +48695,7 @@
         <v>0</v>
       </c>
       <c r="C409" t="n">
-        <v>65</v>
+        <v>5</v>
       </c>
     </row>
     <row r="410">
@@ -48698,7 +48706,7 @@
         <v>0</v>
       </c>
       <c r="C410" t="n">
-        <v>65</v>
+        <v>145</v>
       </c>
     </row>
     <row r="411">
@@ -48709,7 +48717,7 @@
         <v>0</v>
       </c>
       <c r="C411" t="n">
-        <v>145</v>
+        <v>5</v>
       </c>
     </row>
     <row r="412">
@@ -48720,7 +48728,7 @@
         <v>0</v>
       </c>
       <c r="C412" t="n">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="413">
@@ -48731,7 +48739,7 @@
         <v>0</v>
       </c>
       <c r="C413" t="n">
-        <v>145</v>
+        <v>65</v>
       </c>
     </row>
     <row r="414">
@@ -48742,7 +48750,7 @@
         <v>0</v>
       </c>
       <c r="C414" t="n">
-        <v>5</v>
+        <v>145</v>
       </c>
     </row>
     <row r="415">
@@ -48863,7 +48871,7 @@
         <v>0</v>
       </c>
       <c r="C425" t="n">
-        <v>480</v>
+        <v>15</v>
       </c>
     </row>
     <row r="426">
@@ -48874,7 +48882,7 @@
         <v>0</v>
       </c>
       <c r="C426" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="427">
@@ -48885,7 +48893,7 @@
         <v>0</v>
       </c>
       <c r="C427" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="428">
@@ -48896,7 +48904,7 @@
         <v>0</v>
       </c>
       <c r="C428" t="n">
-        <v>10</v>
+        <v>480</v>
       </c>
     </row>
     <row r="429">
@@ -48907,7 +48915,7 @@
         <v>0</v>
       </c>
       <c r="C429" t="n">
-        <v>480</v>
+        <v>5</v>
       </c>
     </row>
     <row r="430">
@@ -48918,7 +48926,7 @@
         <v>0</v>
       </c>
       <c r="C430" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="431">
@@ -48929,7 +48937,7 @@
         <v>0</v>
       </c>
       <c r="C431" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="432">
@@ -48940,7 +48948,7 @@
         <v>0</v>
       </c>
       <c r="C432" t="n">
-        <v>15</v>
+        <v>480</v>
       </c>
     </row>
     <row r="433">
@@ -49028,7 +49036,7 @@
         <v>0</v>
       </c>
       <c r="C440" t="n">
-        <v>5</v>
+        <v>325</v>
       </c>
     </row>
     <row r="441">
@@ -49039,7 +49047,7 @@
         <v>0</v>
       </c>
       <c r="C441" t="n">
-        <v>325</v>
+        <v>5</v>
       </c>
     </row>
     <row r="442">
@@ -49314,6 +49322,17 @@
         <v>99</v>
       </c>
       <c r="C466" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B467" t="n">
+        <v>0</v>
+      </c>
+      <c r="C467" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0BF7FT26Z_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0BF7FT26Z_sales_po_comparison.xlsx
@@ -1274,7 +1274,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -49330,7 +49330,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B467" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="C467" t="n">
         <v>0</v>
